--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cgn-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cgn-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Cgn</t>
+  </si>
+  <si>
+    <t>F11r</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cgn</t>
-  </si>
-  <si>
-    <t>F11r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004271</v>
+        <v>0.009972333333333333</v>
       </c>
       <c r="H2">
-        <v>0.012813</v>
+        <v>0.029917</v>
       </c>
       <c r="I2">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.79856333333333</v>
+        <v>42.31746133333333</v>
       </c>
       <c r="N2">
-        <v>107.39569</v>
+        <v>126.952384</v>
       </c>
       <c r="O2">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="P2">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="Q2">
-        <v>0.1528956639966667</v>
+        <v>0.4220038302364444</v>
       </c>
       <c r="R2">
-        <v>1.37606097597</v>
+        <v>3.798034472128</v>
       </c>
       <c r="S2">
-        <v>0.06823285205915612</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="T2">
-        <v>0.06823285205915612</v>
+        <v>0.6904142182914543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004271</v>
+        <v>0.009972333333333333</v>
       </c>
       <c r="H3">
-        <v>0.012813</v>
+        <v>0.029917</v>
       </c>
       <c r="I3">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.674518333333333</v>
+        <v>11.08476666666667</v>
       </c>
       <c r="N3">
-        <v>5.023555</v>
+        <v>33.2543</v>
       </c>
       <c r="O3">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="P3">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="Q3">
-        <v>0.007151867801666666</v>
+        <v>0.1105409881222222</v>
       </c>
       <c r="R3">
-        <v>0.064366810215</v>
+        <v>0.9948688931</v>
       </c>
       <c r="S3">
-        <v>0.003191668912654075</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="T3">
-        <v>0.003191668912654074</v>
+        <v>0.1808492350906109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.004271</v>
+        <v>0.009972333333333333</v>
       </c>
       <c r="H4">
-        <v>0.012813</v>
+        <v>0.029917</v>
       </c>
       <c r="I4">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09414433333333333</v>
+        <v>0.140061</v>
       </c>
       <c r="N4">
-        <v>0.282433</v>
+        <v>0.420183</v>
       </c>
       <c r="O4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="P4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="Q4">
-        <v>0.0004020904476666666</v>
+        <v>0.001396734979</v>
       </c>
       <c r="R4">
-        <v>0.003618814029</v>
+        <v>0.012570614811</v>
       </c>
       <c r="S4">
-        <v>0.0001794411778128493</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="T4">
-        <v>0.0001794411778128493</v>
+        <v>0.002285111223152439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.004271</v>
+        <v>0.009972333333333333</v>
       </c>
       <c r="H5">
-        <v>0.012813</v>
+        <v>0.029917</v>
       </c>
       <c r="I5">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.08050237806525386</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,524 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.668579666666667</v>
+        <v>7.750570000000001</v>
       </c>
       <c r="N5">
-        <v>14.005739</v>
+        <v>23.25171</v>
       </c>
       <c r="O5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="P5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="Q5">
-        <v>0.01993950375633333</v>
+        <v>0.07729126756333334</v>
       </c>
       <c r="R5">
-        <v>0.179455533807</v>
+        <v>0.6956214080700001</v>
       </c>
       <c r="S5">
-        <v>0.008898415915630816</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="T5">
-        <v>0.008898415915630816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01408433333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.042253</v>
-      </c>
-      <c r="I6">
-        <v>0.2654699898845838</v>
-      </c>
-      <c r="J6">
-        <v>0.2654699898845837</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>35.79856333333333</v>
-      </c>
-      <c r="N6">
-        <v>107.39569</v>
-      </c>
-      <c r="O6">
-        <v>0.8475880303044928</v>
-      </c>
-      <c r="P6">
-        <v>0.8475880303044927</v>
-      </c>
-      <c r="Q6">
-        <v>0.5041988988411111</v>
-      </c>
-      <c r="R6">
-        <v>4.53779008957</v>
-      </c>
-      <c r="S6">
-        <v>0.225009185831228</v>
-      </c>
-      <c r="T6">
-        <v>0.2250091858312279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01408433333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.042253</v>
-      </c>
-      <c r="I7">
-        <v>0.2654699898845838</v>
-      </c>
-      <c r="J7">
-        <v>0.2654699898845837</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.674518333333333</v>
-      </c>
-      <c r="N7">
-        <v>5.023555</v>
-      </c>
-      <c r="O7">
-        <v>0.0396468898107204</v>
-      </c>
-      <c r="P7">
-        <v>0.03964688981072039</v>
-      </c>
-      <c r="Q7">
-        <v>0.02358447437944444</v>
-      </c>
-      <c r="R7">
-        <v>0.212260269415</v>
-      </c>
-      <c r="S7">
-        <v>0.01052505943700715</v>
-      </c>
-      <c r="T7">
-        <v>0.01052505943700715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01408433333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.042253</v>
-      </c>
-      <c r="I8">
-        <v>0.2654699898845838</v>
-      </c>
-      <c r="J8">
-        <v>0.2654699898845837</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.09414433333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.282433</v>
-      </c>
-      <c r="O8">
-        <v>0.002229017106394016</v>
-      </c>
-      <c r="P8">
-        <v>0.002229017106394016</v>
-      </c>
-      <c r="Q8">
-        <v>0.001325960172111111</v>
-      </c>
-      <c r="R8">
-        <v>0.011933641549</v>
-      </c>
-      <c r="S8">
-        <v>0.0005917371486869837</v>
-      </c>
-      <c r="T8">
-        <v>0.0005917371486869836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01408433333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.042253</v>
-      </c>
-      <c r="I9">
-        <v>0.2654699898845838</v>
-      </c>
-      <c r="J9">
-        <v>0.2654699898845837</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.668579666666667</v>
-      </c>
-      <c r="N9">
-        <v>14.005739</v>
-      </c>
-      <c r="O9">
-        <v>0.1105360627783929</v>
-      </c>
-      <c r="P9">
-        <v>0.1105360627783929</v>
-      </c>
-      <c r="Q9">
-        <v>0.06575383221855556</v>
-      </c>
-      <c r="R9">
-        <v>0.5917844899670001</v>
-      </c>
-      <c r="S9">
-        <v>0.02934400746766166</v>
-      </c>
-      <c r="T9">
-        <v>0.02934400746766166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.034699</v>
-      </c>
-      <c r="H10">
-        <v>0.104097</v>
-      </c>
-      <c r="I10">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="J10">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>35.79856333333333</v>
-      </c>
-      <c r="N10">
-        <v>107.39569</v>
-      </c>
-      <c r="O10">
-        <v>0.8475880303044928</v>
-      </c>
-      <c r="P10">
-        <v>0.8475880303044927</v>
-      </c>
-      <c r="Q10">
-        <v>1.242174349103333</v>
-      </c>
-      <c r="R10">
-        <v>11.17956914193</v>
-      </c>
-      <c r="S10">
-        <v>0.5543459924141088</v>
-      </c>
-      <c r="T10">
-        <v>0.5543459924141086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.034699</v>
-      </c>
-      <c r="H11">
-        <v>0.104097</v>
-      </c>
-      <c r="I11">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="J11">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.674518333333333</v>
-      </c>
-      <c r="N11">
-        <v>5.023555</v>
-      </c>
-      <c r="O11">
-        <v>0.0396468898107204</v>
-      </c>
-      <c r="P11">
-        <v>0.03964688981072039</v>
-      </c>
-      <c r="Q11">
-        <v>0.05810411164833333</v>
-      </c>
-      <c r="R11">
-        <v>0.5229370048350001</v>
-      </c>
-      <c r="S11">
-        <v>0.02593016146105918</v>
-      </c>
-      <c r="T11">
-        <v>0.02593016146105917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.034699</v>
-      </c>
-      <c r="H12">
-        <v>0.104097</v>
-      </c>
-      <c r="I12">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="J12">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.09414433333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.282433</v>
-      </c>
-      <c r="O12">
-        <v>0.002229017106394016</v>
-      </c>
-      <c r="P12">
-        <v>0.002229017106394016</v>
-      </c>
-      <c r="Q12">
-        <v>0.003266714222333333</v>
-      </c>
-      <c r="R12">
-        <v>0.029400428001</v>
-      </c>
-      <c r="S12">
-        <v>0.001457838779894183</v>
-      </c>
-      <c r="T12">
-        <v>0.001457838779894183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.034699</v>
-      </c>
-      <c r="H13">
-        <v>0.104097</v>
-      </c>
-      <c r="I13">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="J13">
-        <v>0.6540276320501625</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.668579666666667</v>
-      </c>
-      <c r="N13">
-        <v>14.005739</v>
-      </c>
-      <c r="O13">
-        <v>0.1105360627783929</v>
-      </c>
-      <c r="P13">
-        <v>0.1105360627783929</v>
-      </c>
-      <c r="Q13">
-        <v>0.1619950458536667</v>
-      </c>
-      <c r="R13">
-        <v>1.457955412683</v>
-      </c>
-      <c r="S13">
-        <v>0.07229363939510038</v>
-      </c>
-      <c r="T13">
-        <v>0.07229363939510038</v>
+        <v>0.1264514353947823</v>
       </c>
     </row>
   </sheetData>
